--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1394,7 +1394,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1929,7 +1929,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="105.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="97.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A service request that initiates the need for the lab to collect the test sample</t>
+    <t>A service request that initiates the need for the lab to collect the test sample.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -509,13 +509,13 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL</t>
-  </si>
-  <si>
-    <t>FILL</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:FILL.id</t>
+    <t>ServiceRequest.identifier:PLAC</t>
+  </si>
+  <si>
+    <t>PLAC</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.id</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.id</t>
@@ -537,7 +537,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.extension</t>
+    <t>ServiceRequest.identifier:PLAC.extension</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.extension</t>
@@ -559,7 +559,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.use</t>
+    <t>ServiceRequest.identifier:PLAC.use</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.use</t>
@@ -592,7 +592,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.type</t>
+    <t>ServiceRequest.identifier:PLAC.type</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.type</t>
@@ -629,7 +629,222 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.system</t>
+    <t>ServiceRequest.identifier:PLAC.type.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.system</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.version</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.display</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.type.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:PLAC.system</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.system</t>
@@ -662,7 +877,7 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.value</t>
+    <t>ServiceRequest.identifier:PLAC.value</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.value</t>
@@ -689,7 +904,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.period</t>
+    <t>ServiceRequest.identifier:PLAC.period</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.period</t>
@@ -714,7 +929,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:FILL.assigner</t>
+    <t>ServiceRequest.identifier:PLAC.assigner</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.assigner</t>
@@ -986,10 +1201,6 @@
   </si>
   <si>
     <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>True if service/procedure should not be performed</t>
@@ -1895,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1904,8 +2115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.35546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -3841,7 +4052,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3853,35 +4064,31 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3917,7 +4124,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3929,16 +4136,16 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3949,21 +4156,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3972,19 +4179,19 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3998,7 +4205,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -4022,40 +4229,40 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4066,10 +4273,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4080,7 +4287,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4092,16 +4299,20 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4149,13 +4360,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4167,10 +4378,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4181,10 +4392,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4204,20 +4415,18 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4266,7 +4475,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4278,16 +4487,16 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4298,14 +4507,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4321,19 +4530,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4371,19 +4580,19 @@
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4395,16 +4604,16 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4415,10 +4624,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4429,7 +4638,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4444,15 +4653,17 @@
         <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4461,7 +4672,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>81</v>
@@ -4500,13 +4711,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4515,13 +4726,13 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4532,21 +4743,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4558,15 +4769,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4615,13 +4828,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4630,13 +4843,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4647,21 +4860,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4673,16 +4886,18 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4691,7 +4906,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>81</v>
@@ -4730,13 +4945,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4745,13 +4960,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4762,14 +4977,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4788,19 +5003,17 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4849,7 +5062,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4864,13 +5077,13 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4881,10 +5094,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4892,7 +5105,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4901,24 +5114,26 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4942,13 +5157,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4966,10 +5181,10 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -4981,27 +5196,27 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5009,7 +5224,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -5018,24 +5233,26 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5044,7 +5261,7 @@
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -5059,13 +5276,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5083,10 +5300,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>89</v>
@@ -5098,16 +5315,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5115,10 +5332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5126,10 +5343,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5141,32 +5358,32 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>81</v>
@@ -5178,13 +5395,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5202,13 +5419,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5220,13 +5437,13 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5234,10 +5451,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5245,7 +5462,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5260,22 +5477,22 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5283,7 +5500,7 @@
         <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>81</v>
@@ -5295,13 +5512,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5319,7 +5536,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5334,16 +5551,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5351,10 +5568,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5371,32 +5588,26 @@
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5440,7 +5651,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5455,13 +5666,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5472,18 +5683,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5498,16 +5709,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5533,11 +5744,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5555,7 +5768,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5570,31 +5783,31 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5613,16 +5826,16 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5648,13 +5861,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5672,7 +5885,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5681,33 +5894,33 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5718,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5730,18 +5943,18 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5789,13 +6002,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5804,13 +6017,13 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5821,21 +6034,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5847,13 +6060,13 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5904,13 +6117,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5919,38 +6132,38 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5962,13 +6175,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6019,13 +6232,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6034,35 +6247,35 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6077,16 +6290,20 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6122,17 +6339,19 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6147,33 +6366,31 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6186,21 +6403,23 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6225,13 +6444,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6249,10 +6468,10 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>89</v>
@@ -6264,27 +6483,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6292,7 +6511,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6301,21 +6520,23 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6325,7 +6546,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>81</v>
@@ -6340,13 +6561,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6364,10 +6585,10 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -6379,38 +6600,38 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6422,16 +6643,20 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6455,13 +6680,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6479,13 +6704,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6494,35 +6719,35 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6537,22 +6762,22 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="R40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6572,13 +6797,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6596,7 +6821,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6611,31 +6836,31 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6648,28 +6873,32 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6689,13 +6918,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6713,7 +6942,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6728,16 +6957,16 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6745,21 +6974,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6771,16 +7000,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6806,13 +7035,11 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6830,13 +7057,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6845,31 +7072,31 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6891,12 +7118,14 @@
         <v>188</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6921,13 +7150,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6945,7 +7174,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6954,7 +7183,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
@@ -6963,24 +7192,24 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6988,7 +7217,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -7003,16 +7232,18 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7060,13 +7291,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7078,13 +7309,13 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7092,10 +7323,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7106,7 +7337,7 @@
         <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7118,17 +7349,15 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7153,11 +7382,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7175,13 +7406,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7190,38 +7421,38 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7233,17 +7464,15 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7292,13 +7521,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7307,38 +7536,38 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7347,16 +7576,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7395,25 +7624,23 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7422,38 +7649,40 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7462,20 +7691,18 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7524,13 +7751,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7539,27 +7766,27 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7567,7 +7794,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7582,17 +7809,15 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7617,13 +7842,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7641,13 +7866,13 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
@@ -7659,35 +7884,35 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7699,20 +7924,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7736,13 +7957,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7760,13 +7981,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -7775,35 +7996,35 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7815,18 +8036,20 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>50</v>
+        <v>472</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7875,13 +8098,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -7890,31 +8113,31 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>342</v>
+        <v>476</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7933,15 +8156,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7966,13 +8191,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -7990,7 +8215,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8005,16 +8230,16 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>342</v>
+        <v>488</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8022,21 +8247,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8045,19 +8270,19 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8107,7 +8332,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8122,18 +8347,1295 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AN54" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM53" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/master/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
